--- a/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
+++ b/jpcore-r4b/feature/swg45-add_chemotherapy_regimen/CodeSystem-jp-endoscopyterminology-codes-jed-cs.xlsx
@@ -30,7 +30,7 @@
     <t>Identifier</t>
   </si>
   <si>
-    <t>id: Uniform Resource Identifier (URI)#urn:oid:1.2.392.200270.4.1000.1</t>
+    <t>urn:ietf:rfc:3986#Uniform Resource Identifier (URI)#urn:oid:1.2.392.200270.4.1000.1</t>
   </si>
   <si>
     <t>Version</t>
